--- a/ProgrammierenOhneComputer/SpeicherUndIoTabelle.xlsx
+++ b/ProgrammierenOhneComputer/SpeicherUndIoTabelle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiolanderer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiolanderer/Desktop/VO Programmieren/Script/ProgrammierenOhneComputer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE0E75-4B9E-BD46-9B0C-A17E947D2E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6969EFB1-F5C2-8145-938D-87DBED9F1B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="4760" windowWidth="28240" windowHeight="17240" xr2:uid="{86B0837E-A74E-6E4A-9BAE-B6253CA56BB3}"/>
+    <workbookView xWindow="17380" yWindow="3840" windowWidth="28240" windowHeight="17240" xr2:uid="{86B0837E-A74E-6E4A-9BAE-B6253CA56BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -407,6 +407,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,12 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +745,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,25 +756,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -795,7 +795,7 @@
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
@@ -804,7 +804,7 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -817,7 +817,7 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -826,7 +826,7 @@
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -835,18 +835,18 @@
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -859,7 +859,7 @@
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
@@ -868,7 +868,7 @@
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -877,7 +877,7 @@
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -886,7 +886,7 @@
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -895,7 +895,7 @@
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -904,7 +904,7 @@
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -913,7 +913,7 @@
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -922,7 +922,7 @@
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -931,7 +931,7 @@
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -940,7 +940,7 @@
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -949,7 +949,7 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -958,7 +958,7 @@
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -967,7 +967,7 @@
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -976,7 +976,7 @@
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -985,7 +985,7 @@
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -994,7 +994,7 @@
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1003,7 +1003,7 @@
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1012,7 +1012,7 @@
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1021,7 +1021,7 @@
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1030,7 +1030,7 @@
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1039,7 +1039,7 @@
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1048,7 +1048,7 @@
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1057,7 +1057,7 @@
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1066,7 +1066,7 @@
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1075,7 +1075,7 @@
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1084,7 +1084,7 @@
       <c r="A36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1093,7 +1093,7 @@
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
